--- a/data/Curarrehue.xlsx
+++ b/data/Curarrehue.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Curarrehue.xlsx
+++ b/data/Curarrehue.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
